--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H2">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J2">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>15.55959614996667</v>
+        <v>13.07799304981711</v>
       </c>
       <c r="R2">
-        <v>140.0363653497</v>
+        <v>117.701937448354</v>
       </c>
       <c r="S2">
-        <v>0.004772764349316879</v>
+        <v>0.004485075603243815</v>
       </c>
       <c r="T2">
-        <v>0.00477276434931688</v>
+        <v>0.004485075603243815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H3">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J3">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>19.3497571711111</v>
+        <v>13.64242814231111</v>
       </c>
       <c r="R3">
-        <v>174.14781454</v>
+        <v>122.7818532808</v>
       </c>
       <c r="S3">
-        <v>0.005935361708884427</v>
+        <v>0.004678647663828058</v>
       </c>
       <c r="T3">
-        <v>0.005935361708884429</v>
+        <v>0.004678647663828059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H4">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J4">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>14.49809037167222</v>
+        <v>6.393186471700889</v>
       </c>
       <c r="R4">
-        <v>130.48281334505</v>
+        <v>57.538678245308</v>
       </c>
       <c r="S4">
-        <v>0.004447157123627512</v>
+        <v>0.002192532490420237</v>
       </c>
       <c r="T4">
-        <v>0.004447157123627514</v>
+        <v>0.002192532490420237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H5">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J5">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>2.347752905533333</v>
+        <v>1.657025494918</v>
       </c>
       <c r="R5">
-        <v>21.1297761498</v>
+        <v>14.913229454262</v>
       </c>
       <c r="S5">
-        <v>0.0007201518124593879</v>
+        <v>0.0005682740916668143</v>
       </c>
       <c r="T5">
-        <v>0.0007201518124593882</v>
+        <v>0.0005682740916668143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3626166666666666</v>
+        <v>0.2556606666666667</v>
       </c>
       <c r="H6">
-        <v>1.08785</v>
+        <v>0.7669820000000001</v>
       </c>
       <c r="I6">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="J6">
-        <v>0.01970077495570336</v>
+        <v>0.01354513404628681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>12.47091634525555</v>
+        <v>4.725505721958</v>
       </c>
       <c r="R6">
-        <v>112.2382471073</v>
+        <v>42.529551497622</v>
       </c>
       <c r="S6">
-        <v>0.003825339961415153</v>
+        <v>0.001620604197127882</v>
       </c>
       <c r="T6">
-        <v>0.003825339961415155</v>
+        <v>0.001620604197127882</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I7">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J7">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>715.5980775175639</v>
+        <v>853.0918461696072</v>
       </c>
       <c r="R7">
-        <v>6440.382697658075</v>
+        <v>7677.826615526465</v>
       </c>
       <c r="S7">
-        <v>0.2195031901790615</v>
+        <v>0.2925664061761401</v>
       </c>
       <c r="T7">
-        <v>0.2195031901790615</v>
+        <v>0.2925664061761402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I8">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J8">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>889.9105669981329</v>
+        <v>889.9105669981333</v>
       </c>
       <c r="R8">
-        <v>8009.195102983197</v>
+        <v>8009.1951029832</v>
       </c>
       <c r="S8">
-        <v>0.2729719580966218</v>
+        <v>0.305193324228599</v>
       </c>
       <c r="T8">
-        <v>0.2729719580966219</v>
+        <v>0.3051933242285991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I9">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J9">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>666.7785910154726</v>
+        <v>417.0345732158146</v>
       </c>
       <c r="R9">
-        <v>6001.007319139253</v>
+        <v>3753.311158942332</v>
       </c>
       <c r="S9">
-        <v>0.2045282575083548</v>
+        <v>0.14302130173296</v>
       </c>
       <c r="T9">
-        <v>0.2045282575083548</v>
+        <v>0.14302130173296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I10">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J10">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>107.975004588376</v>
+        <v>108.089592434022</v>
       </c>
       <c r="R10">
-        <v>971.7750412953837</v>
+        <v>972.8063319061978</v>
       </c>
       <c r="S10">
-        <v>0.03312034885415913</v>
+        <v>0.03706914295975855</v>
       </c>
       <c r="T10">
-        <v>0.03312034885415914</v>
+        <v>0.03706914295975855</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>50.03107799999999</v>
       </c>
       <c r="I11">
-        <v>0.9060541512793505</v>
+        <v>0.8835639662863414</v>
       </c>
       <c r="J11">
-        <v>0.9060541512793506</v>
+        <v>0.8835639662863415</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>573.5472614799426</v>
+        <v>308.2499268101819</v>
       </c>
       <c r="R11">
-        <v>5161.925353319483</v>
+        <v>2774.249341291638</v>
       </c>
       <c r="S11">
-        <v>0.1759303966411532</v>
+        <v>0.1057137911888837</v>
       </c>
       <c r="T11">
-        <v>0.1759303966411533</v>
+        <v>0.1057137911888837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H12">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I12">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J12">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>58.63847318212267</v>
+        <v>99.34242556338488</v>
       </c>
       <c r="R12">
-        <v>527.7462586391041</v>
+        <v>894.081830070464</v>
       </c>
       <c r="S12">
-        <v>0.01798681737010305</v>
+        <v>0.03406931687179885</v>
       </c>
       <c r="T12">
-        <v>0.01798681737010305</v>
+        <v>0.03406931687179886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H13">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I13">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J13">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>72.92221507697776</v>
+        <v>103.6299604280889</v>
       </c>
       <c r="R13">
-        <v>656.2999356927999</v>
+        <v>932.6696438528002</v>
       </c>
       <c r="S13">
-        <v>0.02236822505148136</v>
+        <v>0.03553971970398342</v>
       </c>
       <c r="T13">
-        <v>0.02236822505148137</v>
+        <v>0.03553971970398343</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H14">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I14">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J14">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>54.63804299657956</v>
+        <v>48.56361742650311</v>
       </c>
       <c r="R14">
-        <v>491.7423869692161</v>
+        <v>437.072556838528</v>
       </c>
       <c r="S14">
-        <v>0.01675972186020242</v>
+        <v>0.01665481048163741</v>
       </c>
       <c r="T14">
-        <v>0.01675972186020242</v>
+        <v>0.01665481048163741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H15">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I15">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J15">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>8.847828983637333</v>
+        <v>12.587017844288</v>
       </c>
       <c r="R15">
-        <v>79.63046085273599</v>
+        <v>113.283160598592</v>
       </c>
       <c r="S15">
-        <v>0.002713990924632534</v>
+        <v>0.004316696486683033</v>
       </c>
       <c r="T15">
-        <v>0.002713990924632536</v>
+        <v>0.004316696486683034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.366570666666667</v>
+        <v>1.942037333333333</v>
       </c>
       <c r="H16">
-        <v>4.099712</v>
+        <v>5.826112</v>
       </c>
       <c r="I16">
-        <v>0.07424507376494605</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="J16">
-        <v>0.07424507376494606</v>
+        <v>0.1028908996673717</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>46.99835950879289</v>
+        <v>35.895660644928</v>
       </c>
       <c r="R16">
-        <v>422.985235579136</v>
+        <v>323.060945804352</v>
       </c>
       <c r="S16">
-        <v>0.01441631855852668</v>
+        <v>0.01231035612326901</v>
       </c>
       <c r="T16">
-        <v>0.01441631855852668</v>
+        <v>0.01231035612326902</v>
       </c>
     </row>
   </sheetData>
